--- a/biology/Zoologie/Annexe_embryonnaire/Annexe_embryonnaire.xlsx
+++ b/biology/Zoologie/Annexe_embryonnaire/Annexe_embryonnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les annexes embryonnaires, appelées aussi membranes fœtales, sont des organes transitoires qui accompagnent l'embryon et le fœtus lors de son développement et assurent sa survie et ses fonctions vitales (protection, nutrition, respiration, excrétion). 
 Ce sont des tissus non embryonnaires situés entre le fœtus et l'utérus de la mère et qui vont être annexés à l'embryon durant toute la vie intra-utérine. La plupart des Vertébrés à l'exception des Amphibiens possèdent une vésicule vitelline leur permettant de digérer le vitellus (réserve énergétique) produit par la mère au cours de l'ovogenèse. Cette annexe embryonnaire est présente même chez les Mammifères chez qui l'ovocyte est dépourvu de réserve énergétique.
